--- a/data/trans_orig/P04DS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04DS2-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B919342C-3CC8-4C5D-BAA3-F51F1FB9EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D21FC2-C0F9-4CF7-B439-9E44438A2F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55AD5050-E5F4-4D01-A902-F14A5D883AA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D402871-C74C-4307-BF62-F8C1F13ACF84}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,16 +102,16 @@
     <t>68,34%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>66,69%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -120,19 +120,19 @@
     <t>82,12%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>11,18%</t>
@@ -141,16 +141,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,31%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -159,7 +159,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2015 (Tasa respuesta: 0,17%)</t>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2016 (Tasa respuesta: 0,17%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -192,25 +192,25 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>29,11%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>53,91%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>70,89%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>46,09%</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96497DB3-61E0-4922-A49E-5C8179BBD7FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B99288-036C-4812-82C2-EE1E962187FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF0DCC0-AF44-49F8-8914-84B3AC7ED496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9F724-6697-47DB-93E8-6C3976D61E7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
